--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,6 +1044,26 @@
   </si>
   <si>
     <t>decModifierDamagePercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decSkillDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incSkillDisabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1550,19 +1570,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>5000</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1571,21 +1591,62 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>0.5</v>
       </c>
     </row>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -921,149 +921,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startlogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervallogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervalvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervalaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervalparticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startparticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endlogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endparticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incModifierDamagePercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decModifierDamagePercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decSkillDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incSkillDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraCrit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraCrit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraDodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraDodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startlogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intervallogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intervalvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intervalaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intervalparticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startparticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endlogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endparticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incDisabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decDisabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incModifierDamagePercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decModifierDamagePercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decSkillDisabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incSkillDisabled</t>
+    <t>incExtraStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraIntelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraIntelligence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1464,84 +1532,84 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1550,36 +1618,36 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1591,36 +1659,24 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>-1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>5000</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1632,22 +1688,256 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
         <v>0.5</v>
       </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4">
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>5001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -822,7 +822,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>逻辑对应的参数</t>
+          <t>逻辑参数</t>
         </r>
       </text>
     </comment>
@@ -867,11 +867,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>对象播放动作</t>
+          <t>逻辑对应的参数</t>
         </r>
       </text>
     </comment>
     <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对象播放动作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,22 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incExtraCrit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraCrit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incExtraDodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraDodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUFFER_DESC_2001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,19 +1148,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incExtraStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incExtraIntelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraIntelligence</t>
+    <t>startparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervalparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1517,22 +1570,22 @@
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="17" max="17" width="18.75" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="20" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="10" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="15.875" customWidth="1"/>
+    <col min="18" max="18" width="16.625" customWidth="1"/>
+    <col min="19" max="19" width="18.75" customWidth="1"/>
+    <col min="20" max="21" width="20" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1562,40 +1615,49 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1624,19 +1686,25 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2">
         <v>0.3</v>
       </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1644,10 +1712,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1665,7 +1733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1673,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1694,7 +1762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1702,10 +1770,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1723,19 +1791,25 @@
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
         <v>0.2</v>
       </c>
-      <c r="R5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5">
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1743,10 +1817,10 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1764,19 +1838,25 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.2</v>
       </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6">
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1807,17 +1887,17 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>24</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1828,7 +1908,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1848,17 +1928,17 @@
       <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>32</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -1889,17 +1969,17 @@
       <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.5</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>28</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>5001</v>
       </c>
@@ -1928,15 +2008,21 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10">
         <v>0.3</v>
       </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10">
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10">
         <v>0.3</v>
       </c>
     </row>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,14 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incDisabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decDisabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soul.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1184,7 +1176,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incExtra</t>
+    <t>BUFFER_NAME_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decHPProperty,Attack,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decHPProperty,Attack,0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Attack,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Attack,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decDisabled,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incDisabled,1;decHPProperty,Attack,2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1570,7 +1606,8 @@
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="11" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
     <col min="14" max="14" width="16.25" customWidth="1"/>
@@ -1585,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1615,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -1630,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -1645,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V1" t="s">
         <v>20</v>
@@ -1662,13 +1699,13 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1686,19 +1723,19 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>0.3</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V2">
         <v>0.3</v>
@@ -1709,13 +1746,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1738,13 +1775,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1767,13 +1804,13 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1785,28 +1822,28 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="U5" t="s">
-        <v>50</v>
-      </c>
       <c r="V5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1814,13 +1851,13 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1838,19 +1875,19 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6">
         <v>0.2</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V6">
         <v>0.2</v>
@@ -1885,13 +1922,13 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1902,13 +1939,13 @@
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1926,13 +1963,13 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1940,40 +1977,46 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="T9" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9">
+        <v>0.3</v>
       </c>
       <c r="V9">
         <v>0.5</v>
@@ -1981,16 +2024,16 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2008,21 +2051,62 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>5001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11">
         <v>0.3</v>
       </c>
-      <c r="T10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10">
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11">
         <v>0.3</v>
       </c>
     </row>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1221,6 +1221,86 @@
   </si>
   <si>
     <t>incDisabled,1;decHPProperty,Attack,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraProperty,Crit,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraProperty,Crit,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Defense,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Defense,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decModifierDamagePercent,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incModifierDamagePercent,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraProperty,Dodge,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraProperty,Dodge,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Attack,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Attack,0.5;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1593,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1615,7 +1695,8 @@
     <col min="17" max="17" width="15.875" customWidth="1"/>
     <col min="18" max="18" width="16.625" customWidth="1"/>
     <col min="19" max="19" width="18.75" customWidth="1"/>
-    <col min="20" max="21" width="20" customWidth="1"/>
+    <col min="20" max="20" width="34.625" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
     <col min="23" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
@@ -1723,7 +1804,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -1732,7 +1813,7 @@
         <v>0.3</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
         <v>47</v>
@@ -1895,19 +1976,19 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1916,36 +1997,42 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1957,19 +2044,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1977,87 +2064,87 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>4000</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9">
-        <v>0.3</v>
+      <c r="T9" t="s">
+        <v>30</v>
       </c>
       <c r="V9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>0.3</v>
       </c>
       <c r="V10">
         <v>0.5</v>
@@ -2065,48 +2152,274 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
+        <v>4001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11">
+        <v>0.3</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
         <v>5001</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>-1</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>-1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>0.3</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T13" t="s">
         <v>46</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U13" t="s">
         <v>50</v>
       </c>
-      <c r="V11">
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>5002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>5003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>5004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16">
         <v>0.3</v>
       </c>
     </row>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,14 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incModifierDamagePercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decModifierDamagePercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soul.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,10 +1144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decExtra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1164,18 +1152,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decExtra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dodge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incExtra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUFFER_NAME_1003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1208,99 +1188,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>decRateProperty,Attack,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decDisabled,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incDisabled,1;decHPProperty,Attack,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraProperty,Crit,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraProperty,Crit,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Defense,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Defense,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decModifierDamagePercent,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incModifierDamagePercent,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incExtraProperty,Dodge,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decExtraProperty,Dodge,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Attack,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Attack,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decModifierDamagePercent，0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>incRateProperty,Attack,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decRateProperty,Attack,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decDisabled,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incDisabled,1;decHPProperty,Attack,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incExtraProperty,Crit,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraProperty,Crit,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incRateProperty,Defense,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decRateProperty,Defense,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decModifierDamagePercent,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incModifierDamagePercent,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incExtraProperty,Dodge,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decExtraProperty,Dodge,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decRateProperty,Attack,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incRateProperty,Attack,0.5;</t>
+    <t>incRateProperty,Heal,0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Heal,0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incRateProperty,Attack,0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decRateProperty,Attack,0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incHPProperty,Heal,0.1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1703,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1733,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -1748,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -1763,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V1" t="s">
         <v>20</v>
@@ -1780,13 +1800,13 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1804,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2">
         <v>0.3</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V2">
         <v>0.3</v>
@@ -1827,13 +1847,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1856,13 +1876,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1885,13 +1905,13 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1909,19 +1929,19 @@
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1932,13 +1952,13 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1956,19 +1976,19 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6">
         <v>0.2</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V6">
         <v>0.2</v>
@@ -1982,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2003,19 +2023,19 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7">
         <v>0.2</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>0.2</v>
@@ -2023,19 +2043,19 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>2000</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2044,36 +2064,42 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2085,19 +2111,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -2105,63 +2131,57 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>4000</v>
+        <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10">
-        <v>0.3</v>
+      <c r="T10" t="s">
+        <v>28</v>
       </c>
       <c r="V10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>4001</v>
+        <v>3000</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2173,19 +2193,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Q11">
         <v>0.3</v>
@@ -2196,40 +2216,46 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="T12" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12">
+        <v>0.3</v>
       </c>
       <c r="V12">
         <v>0.5</v>
@@ -2237,63 +2263,60 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13">
         <v>0.3</v>
       </c>
-      <c r="T13" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s">
-        <v>50</v>
-      </c>
       <c r="V13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2311,36 +2334,30 @@
         <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="L14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="V14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2361,7 +2378,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L15">
         <v>0.3</v>
@@ -2370,7 +2387,7 @@
         <v>73</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V15">
         <v>0.3</v>
@@ -2378,16 +2395,16 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2405,21 +2422,115 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>0.3</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>5003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>5004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18">
         <v>0.3</v>
       </c>
     </row>

--- a/buffbase.xlsx
+++ b/buffbase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11595"/>
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,14 +1321,18 @@
   </si>
   <si>
     <t>incHPProperty,Heal,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05#2#true#anim/levelup2/;1;14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1405,11 +1409,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1483,6 +1492,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1517,6 +1527,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1692,14 +1703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
@@ -1710,7 +1721,7 @@
     <col min="11" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
     <col min="18" max="18" width="16.625" customWidth="1"/>
@@ -1721,7 +1732,7 @@
     <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1900,7 +1911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1994,7 +2005,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -2129,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4000</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4001</v>
       </c>
@@ -2305,7 +2316,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5000</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5001</v>
       </c>
@@ -2393,7 +2404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5002</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5003</v>
       </c>
@@ -2487,7 +2498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5004</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -2523,6 +2534,9 @@
       </c>
       <c r="L18">
         <v>0.3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>89</v>
       </c>
       <c r="T18" t="s">
         <v>73</v>
@@ -2543,12 +2557,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2556,12 +2570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
